--- a/Result/check.xlsx
+++ b/Result/check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC78"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,80 +501,90 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>recommend2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
@@ -643,85 +653,95 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>140.5</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>鈺齊-KY</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>68.36</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>18.91</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>31.29</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28239</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>鞋99.51%、其他0.49% (2023年)</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>鈺齊-KY-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>557579852.0</t>
         </is>
@@ -790,85 +810,95 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>140.5</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>鈺齊-KY</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>68.36</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>18.91</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>31.29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28239</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>鞋99.51%、其他0.49% (2023年)</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>鈺齊-KY-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>889448148.0</t>
         </is>
@@ -937,85 +967,95 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-01-14 00:00:00</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>58.6</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>5.97</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>北基</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>油電燃氣業</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>15.63</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>7.95</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>40.98</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>29.34</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>21642</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>無鉛汽油52.63%、高級柴油20.42%、無鉛汽油10.87%、無鉛汽油5.77%、其他5.26%、洗車1.53%、儲能產品1.26%、客房及餐飲0.99%、電動巴士0.66%、副油品0.54%、車輛檢查0.08% (2023年)</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>北基-油電燃氣業-上櫃</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>290355.0</t>
         </is>
@@ -1089,80 +1129,90 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>7.52</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>7.43</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>尚茂</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>1.93</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>487</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>尚茂-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>247.0</t>
         </is>
@@ -1231,85 +1281,95 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-01-07 00:00:00</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>22.0</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>4.76</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>保銳</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>1341</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>電源供應器48.86%、其他44.45%、電腦機殼6.69% (2023年)</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>保銳-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>8537.0</t>
         </is>
@@ -1383,80 +1443,90 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>17.75</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>6.93</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>志旭</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>8.22</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>58.75</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>367</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>美妝產品84.98%、儲存媒體12.08%、多媒體2.84%、家電生活週邊0.10% (2023年)</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>志旭-電子通路業-上櫃</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
@@ -1530,80 +1600,90 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>743.0</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>LINEPAY</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>數位雲端</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>701</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>98.64</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>26.58</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>72.35</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>36.07</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>50524</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>手續費80.65%、金融推廣合作11.55%、其他4.12%、系統管理服務3.69% (2023年)</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>LINEPAY-數位雲端-上市</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>643370547.0</t>
         </is>
@@ -1677,80 +1757,90 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>743.0</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>LINEPAY</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>數位雲端</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>701</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>98.64</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>26.58</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>72.35</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>36.07</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>50524</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>手續費80.65%、金融推廣合作11.55%、其他4.12%、系統管理服務3.69% (2023年)</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>LINEPAY-數位雲端-上市</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>567860215.0</t>
         </is>
@@ -1819,85 +1909,95 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>159.5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>-3.33</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>-2.45</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>意德士科技</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>1.88</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>40.81</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>6.81</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>30.38</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>4028</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>半導體零組件89.91%、維修9.78%、其他0.32% (2023年)</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>意德士科技-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>13485.0</t>
         </is>
@@ -1971,80 +2071,90 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>97.7</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>6.2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>富威電力</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>綠能環保</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>15.86</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>6.54</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>82.8</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>28.47</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>6888</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>電力68.45%、工程25.68%、服務收入5.87% (2023年)</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>富威電力-綠能環保-上市</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>62652605.0</t>
         </is>
@@ -2113,85 +2223,95 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2025-01-10 00:00:00</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>698.0</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>-0.99</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>-0.57</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>康霈*</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>705</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>63.42</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>32.55</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>107100</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>孅甘紅膠囊(包/盒)51.08%、黃金組合甘甘好膠囊47.89%、孅甘紅膠囊(包)1.03% (2023年)</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>康霈*-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1219642091.0</t>
         </is>
@@ -2260,85 +2380,95 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>495.0</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>來億-KY</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>480</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>92.54</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>37.29</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>89.51</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>123453</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>運動鞋73.13%、休閒鞋26.85%、其他0.03% (2023年)</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>來億-KY-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>432573012.0</t>
         </is>
@@ -2407,85 +2537,95 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2025-01-03 00:00:00</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>289.0</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>2.3</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>永道-KY</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>77.49</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>15.36</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>30.1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>21478</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>RFID 電子標籤99.31%、其他0.69% (2023年)</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>永道-KY-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>-15728981.0</t>
         </is>
@@ -2554,85 +2694,95 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>68.5</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>9.6</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>鑫傳</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>文化創意業</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>27.09</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>6.48</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>16.0</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>52.03</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>1932</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>廣告46.94%、商品銷售28.12%、節目製作24.68%、其他0.26% (2023年)</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>鑫傳-文化創意業-上櫃</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>3778.0</t>
         </is>
@@ -2706,80 +2856,90 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>89.6</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>台灣虎航</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>14.93</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>9.85</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>13.6</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>20.94</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>41174</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>客運97.15%、其他營業收入2.43%、貨物運輸0.42% (2023年)</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>台灣虎航-航運業-上市</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1183036378.0</t>
         </is>
@@ -2853,80 +3013,90 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>163.0</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>-11.65</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>-2.98</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>久昌</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>184.5</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>18.13</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>5.45</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>29.21</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>4204</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>Hall IC(IC)87.83%、Hall IC(晶圓)8.22%、PowerIC(IC)1.88%、Mosfet IC1.83%、Power IC(晶圓)0.16%、馬達驅動IC0.08% (2023年)</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>久昌-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>37492.0</t>
         </is>
@@ -3000,80 +3170,90 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>130.0</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>科定</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>6.92</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>29.37</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>8.73</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>27.66</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>37.55</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>10684</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>塗裝木皮板50.47%、環保批批板43.63%、科定系統櫃2.33%、KD木地板2.12%、其他1.44% (2023年)</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>科定-其他-上市</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>552127.0</t>
         </is>
@@ -3142,85 +3322,95 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>260.0</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>6.12</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>朋億*</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>58.71</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>36.9</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>16.34</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>59.92</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>19794</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>朋億*-其他電子業-上櫃</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>2271312.0</t>
         </is>
@@ -3289,85 +3479,95 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>260.0</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>6.12</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>7.88</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>朋億*</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>58.71</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>36.9</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>16.34</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>59.92</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>19794</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>朋億*-其他電子業-上櫃</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>1250214.0</t>
         </is>
@@ -3441,80 +3641,90 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>155.0</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>-1.9</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>-0.64</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>鼎基</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>2.52</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>53.45</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>11.48</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>15.59</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>37.55</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>11074</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>薄膜92.17%、密封件4.47%、管帶3.23%、其他0.14% (2023年)</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>鼎基-其他-上市</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>113305499.0</t>
         </is>
@@ -3583,85 +3793,95 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2024-12-26 00:00:00</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>163.0</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>1.56</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>醫揚</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>38.25</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>7.35</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>34.53</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>99.19</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>6295</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>醫療用電腦及其配件98.54%、其他1.46% (2023年)</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>醫揚-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>15972.0</t>
         </is>
@@ -3730,85 +3950,95 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2025-01-08 00:00:00</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>154.0</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>宏觀</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>47.34</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>64.71</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>4776</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>射頻晶片91.93%、委託設計服務8.07% (2023年)</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>宏觀-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>212848.0</t>
         </is>
@@ -3877,85 +4107,95 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2025-01-09 00:00:00</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>59.5</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>興能高</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>5144</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>電池組93.08%、電池芯6.92% (2023年)</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>興能高-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>15467217058.0</t>
         </is>
@@ -4024,85 +4264,95 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>224.0</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>55.07</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>17.46</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>44.18</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>16863</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備70.61%、半導體自動化設備25.54%、液晶面板自動化設備3.85% (2023年)</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>2795613092.0</t>
         </is>
@@ -4171,85 +4421,95 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>78.0</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>良維</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>39.19</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>13.57</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>17.22</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>12382</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>良維-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>315954.0</t>
         </is>
@@ -4318,85 +4578,95 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>56.8</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>5.58</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>雷科</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>24.11</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>28.4</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>4526</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>SMT與雷射設備60.68%、捲裝材料38.32%、其他1.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>雷科-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>75308.0</t>
         </is>
@@ -4470,80 +4740,90 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>66.9</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>3.4</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>精成科</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>46.46</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>12.43</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>10.37</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>31731</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>印刷電路板(PCB)70.10%、EMS29.90% (2023年)</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>精成科-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>1433803704.0</t>
         </is>
@@ -4617,80 +4897,90 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>34.9</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>萬泰科</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>3.33</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>18.47</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>13.76</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>16.78</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>5712</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>網路線34.42%、電子線26.19%、其他18.13%、汽車及機車線10.28%、灌溉線6.89%、電腦線及高溫線2.27%、電源線1.82% (2023年)</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>萬泰科-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>75426.0</t>
         </is>
@@ -4759,85 +5049,95 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>43.6</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>立敦</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>2.4</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>25.23</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>7.54</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>15.97</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>6565</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>化成鋁箔71.92%、電蝕鋁箔27.77%、鋁箔加工0.31% (2023年)</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>立敦-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>1206926.0</t>
         </is>
@@ -4906,85 +5206,95 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>45.3</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>-0.11</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>浪凡</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>數位雲端</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>17.99</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>8.98</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>45.76</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>36.07</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>3522</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>線上直播平台99.98%、連接器,連接線及遙控器0.02% (2023年)</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>浪凡-數位雲端-上市</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>42770753.0</t>
         </is>
@@ -5053,85 +5363,95 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-12-31 00:00:00</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>亞翔</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>57.00</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>70.44</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>14.09</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>58251</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>其他72.12%、無塵室工程20.22%、機電工程4.32%、製程管路工程3.35% (2023年)</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>亞翔-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>3839446142.0</t>
         </is>
@@ -5200,85 +5520,95 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>175.0</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>2.34</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>創惟</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>20.29</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>9.72</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>81.4</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>15869</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>積體電路(IC)晶片99.63%、其他0.37% (2023年)</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>創惟-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>-233231.0</t>
         </is>
@@ -5352,80 +5682,90 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>51.5</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>0.98</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>天剛</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>9.31</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>16.09</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>26.29</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>1491</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>吸油材料38.20%、系統整合及維修29.21%、網路遊戲26.89%、演唱會門票5.70% (2023年)</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>天剛-資訊服務業-上櫃</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>39918.0</t>
         </is>
@@ -5494,85 +5834,95 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>11.15</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>-6.3</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>-1.76</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>寶得利</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>4.68</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>0.6</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>21.51</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>1592</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>商品銷售86.22%、餐飲服務13.46%、空運承攬服務0.32% (2023年)</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AD35" t="inlineStr">
         <is>
           <t>寶得利-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>10372.0</t>
         </is>
@@ -5641,85 +5991,95 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2025-01-09 00:00:00</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>225.0</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>-0.22</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>-0.22</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>達興材料</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>1.82</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>30.22</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>10.45</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>46.3</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>60.87</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>23111</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>顯示器材料93.05%、半導體材料及關鍵原材料6.95% (2023年)</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AD36" t="inlineStr">
         <is>
           <t>達興材料-光電業-上市</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AE36" t="inlineStr">
         <is>
           <t>1547709368.0</t>
         </is>
@@ -5793,80 +6153,90 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>139.0</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>環宇-KY</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>26.18</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AB37" t="inlineStr">
         <is>
           <t>15578</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>射頻及光電99.45%、技術服務0.55% (2023年)</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AD37" t="inlineStr">
         <is>
           <t>環宇-KY-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AE37" t="inlineStr">
         <is>
           <t>2643135.0</t>
         </is>
@@ -5935,85 +6305,95 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>242.5</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>8.26</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>22.52</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>6.71</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>63.65</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AB38" t="inlineStr">
         <is>
           <t>34154</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AE38" t="inlineStr">
         <is>
           <t>22500425.0</t>
         </is>
@@ -6087,80 +6467,90 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>242.5</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>8.26</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>9.98</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>22.52</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>6.71</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>63.65</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>34154</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AD39" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AE39" t="inlineStr">
         <is>
           <t>5213434.0</t>
         </is>
@@ -6234,80 +6624,90 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>147.5</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>眾達-KY</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>49.33</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>148.99</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AB40" t="inlineStr">
         <is>
           <t>11828</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>加強小型化可插拔光收發器(SF56.62%、四通道小型化可插拔光收發器39.59%、光器件收發組件(OSA)3.28%、小型化可插拔光收發器(SFP)0.51% (2023年)</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AD40" t="inlineStr">
         <is>
           <t>眾達-KY-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AE40" t="inlineStr">
         <is>
           <t>7499575323.0</t>
         </is>
@@ -6381,80 +6781,90 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>147.5</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>眾達-KY</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>49.33</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>148.99</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>11828</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>加強小型化可插拔光收發器(SF56.62%、四通道小型化可插拔光收發器39.59%、光器件收發組件(OSA)3.28%、小型化可插拔光收發器(SFP)0.51% (2023年)</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>眾達-KY-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AE41" t="inlineStr">
         <is>
           <t>1588011491.0</t>
         </is>
@@ -6523,85 +6933,95 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>33.0</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>事欣科</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>19.95</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>8.96</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>3246</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>事欣科-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AE42" t="inlineStr">
         <is>
           <t>183473960.0</t>
         </is>
@@ -6670,85 +7090,95 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>37.9</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>聯光通</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="X43" t="inlineStr">
         <is>
           <t>9.78</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>39.48</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AB43" t="inlineStr">
         <is>
           <t>3993</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>系統工程及服務61.79%、光纖電纜及配合材料34.74%、其他3.22%、數據產品傳輸設備0.25% (2023年)</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AD43" t="inlineStr">
         <is>
           <t>聯光通-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AE43" t="inlineStr">
         <is>
           <t>962748.0</t>
         </is>
@@ -6817,85 +7247,95 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>37.9</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>聯光通</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="X44" t="inlineStr">
         <is>
           <t>9.78</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>39.48</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AB44" t="inlineStr">
         <is>
           <t>3993</t>
         </is>
       </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>系統工程及服務61.79%、光纖電纜及配合材料34.74%、其他3.22%、數據產品傳輸設備0.25% (2023年)</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AD44" t="inlineStr">
         <is>
           <t>聯光通-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AE44" t="inlineStr">
         <is>
           <t>-22618.0</t>
         </is>
@@ -6964,85 +7404,95 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>66.7</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>7.58</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>華廣</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="X45" t="inlineStr">
         <is>
           <t>30.16</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="AA45" t="inlineStr">
         <is>
           <t>32.55</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>4071</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>血糖檢測試片69.75%、其他18.19%、血糖檢測儀套件12.06% (2023年)</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AD45" t="inlineStr">
         <is>
           <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AE45" t="inlineStr">
         <is>
           <t>35769724.0</t>
         </is>
@@ -7116,80 +7566,90 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>66.7</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>7.58</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>7.58</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>華廣</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="X46" t="inlineStr">
         <is>
           <t>30.16</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>32.55</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t>4071</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>血糖檢測試片69.75%、其他18.19%、血糖檢測儀套件12.06% (2023年)</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AD46" t="inlineStr">
         <is>
           <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AE46" t="inlineStr">
         <is>
           <t>2477648.0</t>
         </is>
@@ -7263,80 +7723,90 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>35.2</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>晟田</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>23.24</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>183.9</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>2381</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
         <is>
           <t>航太零組件67.18%、半導體製程設備零組件19.84%、其他12.99% (2023年)</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AD47" t="inlineStr">
         <is>
           <t>晟田-其他-上櫃</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AE47" t="inlineStr">
         <is>
           <t>106285.0</t>
         </is>
@@ -7405,85 +7875,95 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2025-01-15 00:00:00</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>34.55</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>6.31</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>聿新科</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="X48" t="inlineStr">
         <is>
           <t>16.42</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>18.38</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t>99.19</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t>1829</t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>居家醫療檢測試紙59.22%、生醫保養品及代工32.79%、居家醫療檢測儀器7.88%、其他0.11% (2023年)</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>聿新科-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AE48" t="inlineStr">
         <is>
           <t>20778.0</t>
         </is>
@@ -7552,85 +8032,95 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2025-01-17 00:00:00</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>連展投控</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="Y49" t="inlineStr">
         <is>
           <t>6.93</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="Z49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AB49" t="inlineStr">
         <is>
           <t>3763</t>
         </is>
       </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>其他38.97%、電腦產品32.74%、通訊產品28.29% (2023年)</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>連展投控-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AE49" t="inlineStr">
         <is>
           <t>197220.0</t>
         </is>
@@ -7704,80 +8194,90 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>637.0</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>2.74</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>貿聯-KY</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>1.39</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="X50" t="inlineStr">
         <is>
           <t>181.28</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
+      <c r="Y50" t="inlineStr">
         <is>
           <t>77.75</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>34.89</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="AA50" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="AB50" t="inlineStr">
         <is>
           <t>116819</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AC50" t="inlineStr">
         <is>
           <t>工業用38.88%、車用25.41%、資訊科技與數據傳播20.22%、電器用14.59%、其他0.89% (2023年)</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AD50" t="inlineStr">
         <is>
           <t>貿聯-KY-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AE50" t="inlineStr">
         <is>
           <t>2392127693.0</t>
         </is>
@@ -7851,80 +8351,90 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>45.5</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>6.06</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>三一東林</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="X51" t="inlineStr">
         <is>
           <t>6.67</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr">
+      <c r="Y51" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="X51" t="inlineStr">
+      <c r="Z51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="AA51" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
+      <c r="AB51" t="inlineStr">
         <is>
           <t>1605</t>
         </is>
       </c>
-      <c r="AA51" t="inlineStr">
+      <c r="AC51" t="inlineStr">
         <is>
           <t>LED Driver45.01%、成車43.58%、其他11.40% (2023年)</t>
         </is>
       </c>
-      <c r="AB51" t="inlineStr">
+      <c r="AD51" t="inlineStr">
         <is>
           <t>三一東林-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AE51" t="inlineStr">
         <is>
           <t>57008.0</t>
         </is>
@@ -7993,85 +8503,95 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>62.7</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="X52" t="inlineStr">
         <is>
           <t>42.21</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
+      <c r="Y52" t="inlineStr">
         <is>
           <t>19.75</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr">
+      <c r="Z52" t="inlineStr">
         <is>
           <t>82.5</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="AA52" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="AB52" t="inlineStr">
         <is>
           <t>8896</t>
         </is>
       </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AC52" t="inlineStr">
         <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr">
+      <c r="AD52" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AE52" t="inlineStr">
         <is>
           <t>2433411209.0</t>
         </is>
@@ -8140,85 +8660,95 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>62.7</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="X53" t="inlineStr">
         <is>
           <t>42.21</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr">
+      <c r="Y53" t="inlineStr">
         <is>
           <t>19.75</t>
         </is>
       </c>
-      <c r="X53" t="inlineStr">
+      <c r="Z53" t="inlineStr">
         <is>
           <t>82.5</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="AA53" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
+      <c r="AB53" t="inlineStr">
         <is>
           <t>8896</t>
         </is>
       </c>
-      <c r="AA53" t="inlineStr">
+      <c r="AC53" t="inlineStr">
         <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr">
+      <c r="AD53" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
+      <c r="AE53" t="inlineStr">
         <is>
           <t>1184586333.0</t>
         </is>
@@ -8292,80 +8822,90 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>23.35</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>亞帝歐</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
+      <c r="X54" t="inlineStr">
         <is>
           <t>25.67</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
+      <c r="Y54" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="X54" t="inlineStr">
+      <c r="Z54" t="inlineStr">
         <is>
           <t>97.29</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="AA54" t="inlineStr">
         <is>
           <t>96.61</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="AB54" t="inlineStr">
         <is>
           <t>1391</t>
         </is>
       </c>
-      <c r="AA54" t="inlineStr">
+      <c r="AC54" t="inlineStr">
         <is>
           <t>照明燈具49.65%、連接線48.51%、塑膠射出1.25%、能源電力0.60% (2023年)</t>
         </is>
       </c>
-      <c r="AB54" t="inlineStr">
+      <c r="AD54" t="inlineStr">
         <is>
           <t>亞帝歐-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
+      <c r="AE54" t="inlineStr">
         <is>
           <t>1220.0</t>
         </is>
@@ -8434,85 +8974,95 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2025-01-03 00:00:00</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>453.0</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>昇達科</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
+      <c r="X55" t="inlineStr">
         <is>
           <t>40.78</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
+      <c r="Y55" t="inlineStr">
         <is>
           <t>10.02</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr">
+      <c r="Z55" t="inlineStr">
         <is>
           <t>67.31</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="AA55" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
+      <c r="AB55" t="inlineStr">
         <is>
           <t>28930</t>
         </is>
       </c>
-      <c r="AA55" t="inlineStr">
+      <c r="AC55" t="inlineStr">
         <is>
           <t>微波及毫米波49.15%、射頻產品32.07%、通訊網路工程服務18.79% (2023年)</t>
         </is>
       </c>
-      <c r="AB55" t="inlineStr">
+      <c r="AD55" t="inlineStr">
         <is>
           <t>昇達科-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
+      <c r="AE55" t="inlineStr">
         <is>
           <t>7322770.0</t>
         </is>
@@ -8581,85 +9131,95 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2025-01-03 00:00:00</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>453.0</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>9.29</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>昇達科</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="W56" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
+      <c r="X56" t="inlineStr">
         <is>
           <t>40.78</t>
         </is>
       </c>
-      <c r="W56" t="inlineStr">
+      <c r="Y56" t="inlineStr">
         <is>
           <t>10.02</t>
         </is>
       </c>
-      <c r="X56" t="inlineStr">
+      <c r="Z56" t="inlineStr">
         <is>
           <t>67.31</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="AA56" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AB56" t="inlineStr">
         <is>
           <t>28930</t>
         </is>
       </c>
-      <c r="AA56" t="inlineStr">
+      <c r="AC56" t="inlineStr">
         <is>
           <t>微波及毫米波49.15%、射頻產品32.07%、通訊網路工程服務18.79% (2023年)</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
+      <c r="AD56" t="inlineStr">
         <is>
           <t>昇達科-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
+      <c r="AE56" t="inlineStr">
         <is>
           <t>2066857.0</t>
         </is>
@@ -8728,85 +9288,95 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
+          <t>--ShowTime</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>22.65</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>5.84</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>杭特</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
+      <c r="X57" t="inlineStr">
         <is>
           <t>15.78</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr">
+      <c r="Y57" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr">
+      <c r="Z57" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="AA57" t="inlineStr">
         <is>
           <t>96.61</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="AB57" t="inlineStr">
         <is>
           <t>817</t>
         </is>
       </c>
-      <c r="AA57" t="inlineStr">
+      <c r="AC57" t="inlineStr">
         <is>
           <t>網路攝影機100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB57" t="inlineStr">
+      <c r="AD57" t="inlineStr">
         <is>
           <t>杭特-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
+      <c r="AE57" t="inlineStr">
         <is>
           <t>15143.0</t>
         </is>
@@ -8875,85 +9445,95 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-01-08 00:00:00</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>35.8</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>太普高</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="W58" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr">
+      <c r="X58" t="inlineStr">
         <is>
           <t>13.66</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr">
+      <c r="Y58" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr">
+      <c r="Z58" t="inlineStr">
         <is>
           <t>13.11</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="AA58" t="inlineStr">
         <is>
           <t>183.9</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="AB58" t="inlineStr">
         <is>
           <t>3308</t>
         </is>
       </c>
-      <c r="AA58" t="inlineStr">
+      <c r="AC58" t="inlineStr">
         <is>
           <t>印刷版材67.70%、不動產代銷21.57%、其他10.73% (2023年)</t>
         </is>
       </c>
-      <c r="AB58" t="inlineStr">
+      <c r="AD58" t="inlineStr">
         <is>
           <t>太普高-其他-上櫃</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
+      <c r="AE58" t="inlineStr">
         <is>
           <t>12153.0</t>
         </is>
@@ -9022,85 +9602,95 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-12-19 00:00:00</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>68.9</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>欣銓</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr">
+      <c r="X59" t="inlineStr">
         <is>
           <t>37.80</t>
         </is>
       </c>
-      <c r="W59" t="inlineStr">
+      <c r="Y59" t="inlineStr">
         <is>
           <t>7.11</t>
         </is>
       </c>
-      <c r="X59" t="inlineStr">
+      <c r="Z59" t="inlineStr">
         <is>
           <t>14.95</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="AA59" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
+      <c r="AB59" t="inlineStr">
         <is>
           <t>33773</t>
         </is>
       </c>
-      <c r="AA59" t="inlineStr">
+      <c r="AC59" t="inlineStr">
         <is>
           <t>晶圓測試73.30%、成品測試26.27%、其他0.43% (2023年)</t>
         </is>
       </c>
-      <c r="AB59" t="inlineStr">
+      <c r="AD59" t="inlineStr">
         <is>
           <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
+      <c r="AE59" t="inlineStr">
         <is>
           <t>2515998.0</t>
         </is>
@@ -9174,80 +9764,90 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>204.5</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>7.92</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>順達</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="W60" t="inlineStr">
         <is>
           <t>2.7</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr">
+      <c r="X60" t="inlineStr">
         <is>
           <t>68.32</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr">
+      <c r="Y60" t="inlineStr">
         <is>
           <t>23.59</t>
         </is>
       </c>
-      <c r="X60" t="inlineStr">
+      <c r="Z60" t="inlineStr">
         <is>
           <t>11.13</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="AA60" t="inlineStr">
         <is>
           <t>27.14</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="AB60" t="inlineStr">
         <is>
           <t>31186</t>
         </is>
       </c>
-      <c r="AA60" t="inlineStr">
+      <c r="AC60" t="inlineStr">
         <is>
           <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
-      <c r="AB60" t="inlineStr">
+      <c r="AD60" t="inlineStr">
         <is>
           <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
+      <c r="AE60" t="inlineStr">
         <is>
           <t>6053876.0</t>
         </is>
@@ -9316,85 +9916,95 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2024-12-23 00:00:00</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>169.5</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>波若威</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="W61" t="inlineStr">
         <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr">
+      <c r="X61" t="inlineStr">
         <is>
           <t>33.20</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr">
+      <c r="Y61" t="inlineStr">
         <is>
           <t>5.67</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr">
+      <c r="Z61" t="inlineStr">
         <is>
           <t>37.75</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="AB61" t="inlineStr">
         <is>
           <t>13652</t>
         </is>
       </c>
-      <c r="AA61" t="inlineStr">
+      <c r="AC61" t="inlineStr">
         <is>
           <t>光纖連接產品(OIN Product)49.92%、光能量分合產品22.24%、光波長分合產品21.23%、光能量放大產品6.33%、其他0.28% (2023年)</t>
         </is>
       </c>
-      <c r="AB61" t="inlineStr">
+      <c r="AD61" t="inlineStr">
         <is>
           <t>波若威-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC61" t="inlineStr">
+      <c r="AE61" t="inlineStr">
         <is>
           <t>7920315.0</t>
         </is>
@@ -9463,85 +10073,95 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2024-12-23 00:00:00</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>169.5</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>波若威</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
+      <c r="X62" t="inlineStr">
         <is>
           <t>33.20</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr">
+      <c r="Y62" t="inlineStr">
         <is>
           <t>5.67</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr">
+      <c r="Z62" t="inlineStr">
         <is>
           <t>37.75</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="AA62" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="AB62" t="inlineStr">
         <is>
           <t>13652</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr">
+      <c r="AC62" t="inlineStr">
         <is>
           <t>光纖連接產品(OIN Product)49.92%、光能量分合產品22.24%、光波長分合產品21.23%、光能量放大產品6.33%、其他0.28% (2023年)</t>
         </is>
       </c>
-      <c r="AB62" t="inlineStr">
+      <c r="AD62" t="inlineStr">
         <is>
           <t>波若威-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
+      <c r="AE62" t="inlineStr">
         <is>
           <t>-1352689.0</t>
         </is>
@@ -9615,80 +10235,90 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>28.9</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>隆銘綠能</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr">
+      <c r="X63" t="inlineStr">
         <is>
           <t>10.10</t>
         </is>
       </c>
-      <c r="W63" t="inlineStr">
+      <c r="Y63" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
-      <c r="X63" t="inlineStr">
+      <c r="Z63" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="AA63" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
+      <c r="AB63" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="AA63" t="inlineStr">
+      <c r="AC63" t="inlineStr">
         <is>
           <t>機電系統整合工程70.22%、營建工程29.61%、商品銷售0.17% (2023年)</t>
         </is>
       </c>
-      <c r="AB63" t="inlineStr">
+      <c r="AD63" t="inlineStr">
         <is>
           <t>隆銘綠能-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
+      <c r="AE63" t="inlineStr">
         <is>
           <t>3200224.0</t>
         </is>
@@ -9757,85 +10387,95 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2024-12-16 00:00:00</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>119.5</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>神基</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="W64" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
+      <c r="X64" t="inlineStr">
         <is>
           <t>36.80</t>
         </is>
       </c>
-      <c r="W64" t="inlineStr">
+      <c r="Y64" t="inlineStr">
         <is>
           <t>14.85</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr">
+      <c r="Z64" t="inlineStr">
         <is>
           <t>17.29</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="AA64" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="AB64" t="inlineStr">
         <is>
           <t>73517</t>
         </is>
       </c>
-      <c r="AA64" t="inlineStr">
+      <c r="AC64" t="inlineStr">
         <is>
           <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
         </is>
       </c>
-      <c r="AB64" t="inlineStr">
+      <c r="AD64" t="inlineStr">
         <is>
           <t>神基-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
+      <c r="AE64" t="inlineStr">
         <is>
           <t>765320369.0</t>
         </is>
@@ -9904,85 +10544,95 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025-01-06 00:00:00</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>30.8</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>宏太-KY</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>居家生活</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr">
+      <c r="X65" t="inlineStr">
         <is>
           <t>10.57</t>
         </is>
       </c>
-      <c r="W65" t="inlineStr">
+      <c r="Y65" t="inlineStr">
         <is>
           <t>1.6</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr">
+      <c r="Z65" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr">
+      <c r="AA65" t="inlineStr">
         <is>
           <t>95.04</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
+      <c r="AB65" t="inlineStr">
         <is>
           <t>1603</t>
         </is>
       </c>
-      <c r="AA65" t="inlineStr">
+      <c r="AC65" t="inlineStr">
         <is>
           <t>嬰幼兒產品100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB65" t="inlineStr">
+      <c r="AD65" t="inlineStr">
         <is>
           <t>宏太-KY-居家生活-上櫃</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
+      <c r="AE65" t="inlineStr">
         <is>
           <t>246.0</t>
         </is>
@@ -10056,80 +10706,90 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>8.15</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>-0.97</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>-1.33</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>麗嬰房</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>貿易百貨</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="X66" t="inlineStr">
         <is>
           <t>5.19</t>
         </is>
       </c>
-      <c r="W66" t="inlineStr">
+      <c r="Y66" t="inlineStr">
         <is>
           <t>5.6</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr">
+      <c r="Z66" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y66" t="inlineStr">
+      <c r="AA66" t="inlineStr">
         <is>
           <t>75.2</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
+      <c r="AB66" t="inlineStr">
         <is>
           <t>857</t>
         </is>
       </c>
-      <c r="AA66" t="inlineStr">
+      <c r="AC66" t="inlineStr">
         <is>
           <t>嬰童服飾用品98.23%、租賃1.77% (2023年)</t>
         </is>
       </c>
-      <c r="AB66" t="inlineStr">
+      <c r="AD66" t="inlineStr">
         <is>
           <t>麗嬰房-貿易百貨-上市</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
+      <c r="AE66" t="inlineStr">
         <is>
           <t>2189046.0</t>
         </is>
@@ -10203,80 +10863,90 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>104.0</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>-0.95</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>美食-KY</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
+      <c r="X67" t="inlineStr">
         <is>
           <t>61.55</t>
         </is>
       </c>
-      <c r="W67" t="inlineStr">
+      <c r="Y67" t="inlineStr">
         <is>
           <t>26.29</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr">
+      <c r="Z67" t="inlineStr">
         <is>
           <t>46.22</t>
         </is>
       </c>
-      <c r="Y67" t="inlineStr">
+      <c r="AA67" t="inlineStr">
         <is>
           <t>37.74</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
+      <c r="AB67" t="inlineStr">
         <is>
           <t>18720</t>
         </is>
       </c>
-      <c r="AA67" t="inlineStr">
+      <c r="AC67" t="inlineStr">
         <is>
           <t>麵包39.43%、西點36.47%、飲料23.63%、其他0.46% (2023年)</t>
         </is>
       </c>
-      <c r="AB67" t="inlineStr">
+      <c r="AD67" t="inlineStr">
         <is>
           <t>美食-KY-觀光事業-上市</t>
         </is>
       </c>
-      <c r="AC67" t="inlineStr">
+      <c r="AE67" t="inlineStr">
         <is>
           <t>234258681.0</t>
         </is>
@@ -10350,80 +11020,90 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>52.2</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>-2.06</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>-2.79</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>燦星旅</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="W68" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
+      <c r="X68" t="inlineStr">
         <is>
           <t>10.95</t>
         </is>
       </c>
-      <c r="W68" t="inlineStr">
+      <c r="Y68" t="inlineStr">
         <is>
           <t>10.74</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr">
+      <c r="Z68" t="inlineStr">
         <is>
           <t>15.91</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr">
+      <c r="AA68" t="inlineStr">
         <is>
           <t>21.51</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
+      <c r="AB68" t="inlineStr">
         <is>
           <t>3600</t>
         </is>
       </c>
-      <c r="AA68" t="inlineStr">
+      <c r="AC68" t="inlineStr">
         <is>
           <t>亞洲線90.74%、其他5.52%、國內線3.74% (2023年)</t>
         </is>
       </c>
-      <c r="AB68" t="inlineStr">
+      <c r="AD68" t="inlineStr">
         <is>
           <t>燦星旅-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AC68" t="inlineStr">
+      <c r="AE68" t="inlineStr">
         <is>
           <t>96387.0</t>
         </is>
@@ -10497,80 +11177,90 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>38.05</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>-0.39</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>亞航</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="W69" t="inlineStr">
         <is>
           <t>1.39</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
+      <c r="X69" t="inlineStr">
         <is>
           <t>16.41</t>
         </is>
       </c>
-      <c r="W69" t="inlineStr">
+      <c r="Y69" t="inlineStr">
         <is>
           <t>6.7</t>
         </is>
       </c>
-      <c r="X69" t="inlineStr">
+      <c r="Z69" t="inlineStr">
         <is>
           <t>55.14</t>
         </is>
       </c>
-      <c r="Y69" t="inlineStr">
+      <c r="AA69" t="inlineStr">
         <is>
           <t>20.94</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
+      <c r="AB69" t="inlineStr">
         <is>
           <t>7969</t>
         </is>
       </c>
-      <c r="AA69" t="inlineStr">
+      <c r="AC69" t="inlineStr">
         <is>
           <t>零附件維修類(自修)40.26%、飛機修護24.16%、委外送修及航材買賣22.80%、機隊維持及修護補給裝機計價12.78% (2023年)</t>
         </is>
       </c>
-      <c r="AB69" t="inlineStr">
+      <c r="AD69" t="inlineStr">
         <is>
           <t>亞航-航運業-上市</t>
         </is>
       </c>
-      <c r="AC69" t="inlineStr">
+      <c r="AE69" t="inlineStr">
         <is>
           <t>388428818.0</t>
         </is>
@@ -10639,85 +11329,95 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2025-01-06 00:00:00</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>17.1</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>-8.31</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>-7.32</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>新建</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>建材營造</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr">
+      <c r="X70" t="inlineStr">
         <is>
           <t>7.43</t>
         </is>
       </c>
-      <c r="W70" t="inlineStr">
+      <c r="Y70" t="inlineStr">
         <is>
           <t>10.21</t>
         </is>
       </c>
-      <c r="X70" t="inlineStr">
+      <c r="Z70" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr">
+      <c r="AA70" t="inlineStr">
         <is>
           <t>28.23</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="AB70" t="inlineStr">
         <is>
           <t>3869</t>
         </is>
       </c>
-      <c r="AA70" t="inlineStr">
+      <c r="AC70" t="inlineStr">
         <is>
           <t>土木工程62.51%、建築工程37.45%、其他0.04% (2023年)</t>
         </is>
       </c>
-      <c r="AB70" t="inlineStr">
+      <c r="AD70" t="inlineStr">
         <is>
           <t>新建-建材營造-上市</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr">
+      <c r="AE70" t="inlineStr">
         <is>
           <t>164832086.0</t>
         </is>
@@ -10786,85 +11486,95 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>59.2</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>宏達電</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="W71" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr">
+      <c r="X71" t="inlineStr">
         <is>
           <t>26.37</t>
         </is>
       </c>
-      <c r="W71" t="inlineStr">
+      <c r="Y71" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr">
+      <c r="Z71" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y71" t="inlineStr">
+      <c r="AA71" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
+      <c r="AB71" t="inlineStr">
         <is>
           <t>49289</t>
         </is>
       </c>
-      <c r="AA71" t="inlineStr">
+      <c r="AC71" t="inlineStr">
         <is>
           <t>虛擬實境及5G,智慧型手機和100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB71" t="inlineStr">
+      <c r="AD71" t="inlineStr">
         <is>
           <t>宏達電-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AC71" t="inlineStr">
+      <c r="AE71" t="inlineStr">
         <is>
           <t>16618070150.0</t>
         </is>
@@ -10933,85 +11643,95 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2025-01-17 00:00:00</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>102.5</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>-1.44</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>立隆電</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
+      <c r="V72" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="W72" t="inlineStr">
         <is>
           <t>2.73</t>
         </is>
       </c>
-      <c r="V72" t="inlineStr">
+      <c r="X72" t="inlineStr">
         <is>
           <t>47.27</t>
         </is>
       </c>
-      <c r="W72" t="inlineStr">
+      <c r="Y72" t="inlineStr">
         <is>
           <t>16.95</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr">
+      <c r="Z72" t="inlineStr">
         <is>
           <t>15.84</t>
         </is>
       </c>
-      <c r="Y72" t="inlineStr">
+      <c r="AA72" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
+      <c r="AB72" t="inlineStr">
         <is>
           <t>16885</t>
         </is>
       </c>
-      <c r="AA72" t="inlineStr">
+      <c r="AC72" t="inlineStr">
         <is>
           <t>鋁質電解電容器62.55%、化成鋁箔25.98%、電蝕鋁箔11.34%、鋁箔加工0.13% (2023年)</t>
         </is>
       </c>
-      <c r="AB72" t="inlineStr">
+      <c r="AD72" t="inlineStr">
         <is>
           <t>立隆電-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC72" t="inlineStr">
+      <c r="AE72" t="inlineStr">
         <is>
           <t>8559054542.0</t>
         </is>
@@ -11085,80 +11805,90 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>80.0</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>5.54</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>冠西電</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="V73" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="W73" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V73" t="inlineStr">
+      <c r="X73" t="inlineStr">
         <is>
           <t>10.90</t>
         </is>
       </c>
-      <c r="W73" t="inlineStr">
+      <c r="Y73" t="inlineStr">
         <is>
           <t>2.6</t>
         </is>
       </c>
-      <c r="X73" t="inlineStr">
+      <c r="Z73" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr">
+      <c r="AA73" t="inlineStr">
         <is>
           <t>60.87</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
+      <c r="AB73" t="inlineStr">
         <is>
           <t>13717</t>
         </is>
       </c>
-      <c r="AA73" t="inlineStr">
+      <c r="AC73" t="inlineStr">
         <is>
           <t>裝飾燈53.97%、光電元件39.45%、節淨蒸汽4.52%、貿易及通路2.06% (2023年)</t>
         </is>
       </c>
-      <c r="AB73" t="inlineStr">
+      <c r="AD73" t="inlineStr">
         <is>
           <t>冠西電-光電業-上市</t>
         </is>
       </c>
-      <c r="AC73" t="inlineStr">
+      <c r="AE73" t="inlineStr">
         <is>
           <t>377767767.0</t>
         </is>
@@ -11232,80 +11962,90 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>80.0</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>5.54</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>6.24</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>冠西電</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
+      <c r="V74" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="W74" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
+      <c r="X74" t="inlineStr">
         <is>
           <t>10.90</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr">
+      <c r="Y74" t="inlineStr">
         <is>
           <t>2.6</t>
         </is>
       </c>
-      <c r="X74" t="inlineStr">
+      <c r="Z74" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y74" t="inlineStr">
+      <c r="AA74" t="inlineStr">
         <is>
           <t>60.87</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
+      <c r="AB74" t="inlineStr">
         <is>
           <t>13717</t>
         </is>
       </c>
-      <c r="AA74" t="inlineStr">
+      <c r="AC74" t="inlineStr">
         <is>
           <t>裝飾燈53.97%、光電元件39.45%、節淨蒸汽4.52%、貿易及通路2.06% (2023年)</t>
         </is>
       </c>
-      <c r="AB74" t="inlineStr">
+      <c r="AD74" t="inlineStr">
         <is>
           <t>冠西電-光電業-上市</t>
         </is>
       </c>
-      <c r="AC74" t="inlineStr">
+      <c r="AE74" t="inlineStr">
         <is>
           <t>243714106.0</t>
         </is>
@@ -11379,80 +12119,90 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>437.5</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>台達電</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>1.47</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr">
+      <c r="X75" t="inlineStr">
         <is>
           <t>84.15</t>
         </is>
       </c>
-      <c r="W75" t="inlineStr">
+      <c r="Y75" t="inlineStr">
         <is>
           <t>43.2</t>
         </is>
       </c>
-      <c r="X75" t="inlineStr">
+      <c r="Z75" t="inlineStr">
         <is>
           <t>30.7</t>
         </is>
       </c>
-      <c r="Y75" t="inlineStr">
+      <c r="AA75" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
+      <c r="AB75" t="inlineStr">
         <is>
           <t>1136425</t>
         </is>
       </c>
-      <c r="AA75" t="inlineStr">
+      <c r="AC75" t="inlineStr">
         <is>
           <t>電源及零組件63.68%、基礎設施23.28%、自動化業務13.02%、其他0.02% (2023年)</t>
         </is>
       </c>
-      <c r="AB75" t="inlineStr">
+      <c r="AD75" t="inlineStr">
         <is>
           <t>台達電-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
+      <c r="AE75" t="inlineStr">
         <is>
           <t>3564327251.0</t>
         </is>
@@ -11526,80 +12276,90 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>129.5</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>1.57</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>IKKA-KY</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>汽車工業</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
+      <c r="V76" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>2.46</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr">
+      <c r="X76" t="inlineStr">
         <is>
           <t>61.48</t>
         </is>
       </c>
-      <c r="W76" t="inlineStr">
+      <c r="Y76" t="inlineStr">
         <is>
           <t>30.4</t>
         </is>
       </c>
-      <c r="X76" t="inlineStr">
+      <c r="Z76" t="inlineStr">
         <is>
           <t>20.56</t>
         </is>
       </c>
-      <c r="Y76" t="inlineStr">
+      <c r="AA76" t="inlineStr">
         <is>
           <t>141.64</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
+      <c r="AB76" t="inlineStr">
         <is>
           <t>4075</t>
         </is>
       </c>
-      <c r="AA76" t="inlineStr">
+      <c r="AC76" t="inlineStr">
         <is>
           <t>汽車類64.38%、衛浴家電類16.80%、其他15.15%、辦公設備3.67% (2023年)</t>
         </is>
       </c>
-      <c r="AB76" t="inlineStr">
+      <c r="AD76" t="inlineStr">
         <is>
           <t>IKKA-KY-汽車工業-上市</t>
         </is>
       </c>
-      <c r="AC76" t="inlineStr">
+      <c r="AE76" t="inlineStr">
         <is>
           <t>680293811.0</t>
         </is>
@@ -11673,80 +12433,90 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>189.5</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>喬山</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="U77" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
+      <c r="V77" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U77" t="inlineStr">
+      <c r="W77" t="inlineStr">
         <is>
           <t>0.53</t>
         </is>
       </c>
-      <c r="V77" t="inlineStr">
+      <c r="X77" t="inlineStr">
         <is>
           <t>34.12</t>
         </is>
       </c>
-      <c r="W77" t="inlineStr">
+      <c r="Y77" t="inlineStr">
         <is>
           <t>39.81</t>
         </is>
       </c>
-      <c r="X77" t="inlineStr">
+      <c r="Z77" t="inlineStr">
         <is>
           <t>44.8</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr">
+      <c r="AA77" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
+      <c r="AB77" t="inlineStr">
         <is>
           <t>57493</t>
         </is>
       </c>
-      <c r="AA77" t="inlineStr">
+      <c r="AC77" t="inlineStr">
         <is>
           <t>電動跑步機41.46%、重量訓練器33.23%、橢圓機6.85%、踏步機5.64%、其他5.26%、健身車4.95%、斜躺式健身車1.81%、划船機0.82% (2023年)</t>
         </is>
       </c>
-      <c r="AB77" t="inlineStr">
+      <c r="AD77" t="inlineStr">
         <is>
           <t>喬山-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC77" t="inlineStr">
+      <c r="AE77" t="inlineStr">
         <is>
           <t>-4986928.0</t>
         </is>
@@ -11815,85 +12585,95 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2024-12-30 00:00:00</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>31.45</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>岱宇</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="U78" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
+      <c r="V78" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="W78" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="V78" t="inlineStr">
+      <c r="X78" t="inlineStr">
         <is>
           <t>26.97</t>
         </is>
       </c>
-      <c r="W78" t="inlineStr">
+      <c r="Y78" t="inlineStr">
         <is>
           <t>10.03</t>
         </is>
       </c>
-      <c r="X78" t="inlineStr">
+      <c r="Z78" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y78" t="inlineStr">
+      <c r="AA78" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
+      <c r="AB78" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="AA78" t="inlineStr">
+      <c r="AC78" t="inlineStr">
         <is>
           <t>電動跑步機52.33%、其他16.86%、橢圓機14.11%、健身車9.40%、家具7.30% (2023年)</t>
         </is>
       </c>
-      <c r="AB78" t="inlineStr">
+      <c r="AD78" t="inlineStr">
         <is>
           <t>岱宇-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC78" t="inlineStr">
+      <c r="AE78" t="inlineStr">
         <is>
           <t>44836511.0</t>
         </is>
